--- a/Team-Data/2007-08/12-3-2007-08.xlsx
+++ b/Team-Data/2007-08/12-3-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,67 +733,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.438</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J2" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M2" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.309</v>
+        <v>0.32</v>
       </c>
       <c r="O2" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="P2" t="n">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R2" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S2" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y2" t="n">
         <v>5.8</v>
@@ -735,19 +802,19 @@
         <v>20.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>14</v>
@@ -759,64 +826,64 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>13</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ2" t="n">
         <v>8</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="n">
         <v>20</v>
@@ -974,13 +1041,13 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -995,7 +1062,7 @@
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.3</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.433</v>
+        <v>0.439</v>
       </c>
       <c r="L4" t="n">
         <v>6.4</v>
       </c>
       <c r="M4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="O4" t="n">
         <v>17.3</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17.4</v>
-      </c>
       <c r="P4" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="R4" t="n">
         <v>12.9</v>
       </c>
       <c r="S4" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>41.3</v>
+        <v>41.7</v>
       </c>
       <c r="U4" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="V4" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="W4" t="n">
         <v>7.8</v>
@@ -1093,49 +1160,49 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.8</v>
+        <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>6</v>
@@ -1144,46 +1211,46 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>3</v>
       </c>
       <c r="AS4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>20</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.267</v>
+        <v>0.286</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="J5" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.393</v>
+        <v>0.397</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
         <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.312</v>
+        <v>0.303</v>
       </c>
       <c r="O5" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="P5" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.716</v>
       </c>
       <c r="R5" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="S5" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T5" t="n">
         <v>44.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="V5" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="W5" t="n">
         <v>8.1</v>
       </c>
       <c r="X5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
         <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1314,52 +1381,52 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>18</v>
       </c>
       <c r="AN5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
       </c>
-      <c r="AO5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>24</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>5</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
         <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>18</v>
@@ -1493,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
@@ -1502,22 +1569,22 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1526,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -1576,103 +1643,103 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667</v>
+        <v>0.647</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>79.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M7" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O7" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P7" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.845</v>
+        <v>0.839</v>
       </c>
       <c r="R7" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W7" t="n">
         <v>5.7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC7" t="n">
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1681,28 +1748,28 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>15</v>
@@ -1714,13 +1781,13 @@
         <v>30</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1863,10 +1930,10 @@
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
@@ -1890,13 +1957,13 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>5</v>
@@ -2042,19 +2109,19 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>21</v>
@@ -2078,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.529</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
         <v>40.6</v>
       </c>
       <c r="J10" t="n">
-        <v>90.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="L10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.339</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P10" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>43.2</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.1</v>
+        <v>108.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
         <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,61 +2288,61 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA10" t="n">
         <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2421,19 +2488,19 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
         <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
         <v>7</v>
@@ -2442,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2576,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>10</v>
@@ -2615,19 +2682,19 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2797,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2806,7 +2873,7 @@
         <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
@@ -2821,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>3.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
         <v>11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2982,13 +3049,13 @@
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
@@ -2997,7 +3064,7 @@
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>80.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.466</v>
       </c>
       <c r="L15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.409</v>
+        <v>0.401</v>
       </c>
       <c r="O15" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="P15" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="R15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
         <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X15" t="n">
         <v>5.4</v>
@@ -3098,10 +3165,10 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="AB15" t="n">
         <v>104.5</v>
@@ -3110,22 +3177,22 @@
         <v>-1</v>
       </c>
       <c r="AD15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH15" t="n">
         <v>13</v>
       </c>
-      <c r="AE15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
       <c r="AI15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>16</v>
@@ -3134,7 +3201,7 @@
         <v>7</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>11</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>9</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3158,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
@@ -3170,16 +3237,16 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -3214,91 +3281,91 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="J16" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.448</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="O16" t="n">
         <v>16.8</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.674</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R16" t="n">
         <v>8.5</v>
       </c>
       <c r="S16" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="T16" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="U16" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
         <v>7.9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>89.5</v>
+        <v>88.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
         <v>28</v>
@@ -3307,13 +3374,13 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -3331,13 +3398,13 @@
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,28 +3413,28 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-4.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -3489,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>24</v>
@@ -3513,7 +3580,7 @@
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>15</v>
@@ -3534,13 +3601,13 @@
         <v>26</v>
       </c>
       <c r="AX17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-9</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3677,7 +3744,7 @@
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>16</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,13 +3762,13 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
         <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3710,13 +3777,13 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
         <v>14</v>
@@ -3874,13 +3941,13 @@
         <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>21</v>
@@ -3892,13 +3959,13 @@
         <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
@@ -4032,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>18</v>
@@ -4041,13 +4108,13 @@
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
@@ -4068,13 +4135,13 @@
         <v>13</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>13</v>
@@ -4086,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>-8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF21" t="n">
         <v>25</v>
       </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4226,19 +4293,19 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>27</v>
@@ -4250,7 +4317,7 @@
         <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4274,7 +4341,7 @@
         <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -4306,79 +4373,79 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M22" t="n">
         <v>26.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.719</v>
+        <v>0.721</v>
       </c>
       <c r="R22" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="T22" t="n">
-        <v>44.3</v>
+        <v>43.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="AC22" t="n">
         <v>6.9</v>
@@ -4396,19 +4463,19 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>8</v>
       </c>
       <c r="AL22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
@@ -4417,13 +4484,13 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4444,13 +4511,13 @@
         <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.294</v>
+        <v>0.313</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="J23" t="n">
-        <v>79.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M23" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="N23" t="n">
-        <v>0.302</v>
+        <v>0.308</v>
       </c>
       <c r="O23" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
         <v>25.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.704</v>
+        <v>0.706</v>
       </c>
       <c r="R23" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="S23" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="T23" t="n">
         <v>43.5</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4554,55 +4621,55 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AA23" t="n">
         <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>90.8</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF23" t="n">
         <v>25</v>
       </c>
-      <c r="AF23" t="n">
-        <v>26</v>
-      </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
         <v>29</v>
       </c>
       <c r="AM23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN23" t="n">
         <v>28</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>30</v>
       </c>
       <c r="AO23" t="n">
         <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ23" t="n">
         <v>25</v>
@@ -4611,34 +4678,34 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV23" t="n">
         <v>22</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>23</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4772,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="AL24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
         <v>3</v>
@@ -4784,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>8</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -4852,124 +4919,124 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.294</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.1</v>
+        <v>34.6</v>
       </c>
       <c r="J25" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="K25" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="M25" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.37</v>
+        <v>0.355</v>
       </c>
       <c r="O25" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R25" t="n">
         <v>9.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T25" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U25" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.9</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>91.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="n">
         <v>26</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>24</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
       </c>
       <c r="AK25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN25" t="n">
         <v>12</v>
       </c>
-      <c r="AL25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>9</v>
-      </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>25</v>
@@ -4981,10 +5048,10 @@
         <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AV25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
@@ -4993,16 +5060,16 @@
         <v>25</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
@@ -5133,13 +5200,13 @@
         <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM26" t="n">
         <v>23</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>24</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
         <v>24</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
         <v>17</v>
@@ -5175,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
         <v>2</v>
@@ -5312,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
         <v>3</v>
@@ -5321,19 +5388,19 @@
         <v>6</v>
       </c>
       <c r="AM27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN27" t="n">
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5555,10 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5515,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>14</v>
@@ -5542,10 +5609,10 @@
         <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
         <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,46 +5665,46 @@
         <v>37.3</v>
       </c>
       <c r="J29" t="n">
-        <v>83</v>
+        <v>83.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L29" t="n">
         <v>8.6</v>
       </c>
       <c r="M29" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.433</v>
+        <v>0.426</v>
       </c>
       <c r="O29" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.839</v>
+        <v>0.843</v>
       </c>
       <c r="R29" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
         <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="U29" t="n">
         <v>23.2</v>
       </c>
       <c r="V29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X29" t="n">
         <v>3.9</v>
@@ -5646,31 +5713,31 @@
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB29" t="n">
         <v>98.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
         <v>11</v>
@@ -5679,13 +5746,13 @@
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5697,16 +5764,16 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5721,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>10</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
         <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.722</v>
+        <v>0.706</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M30" t="n">
         <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.358</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P30" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U30" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="V30" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W30" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>5</v>
@@ -5870,31 +5937,31 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5906,7 +5973,7 @@
         <v>28</v>
       </c>
       <c r="AZ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,10 +6101,10 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6055,16 +6122,16 @@
         <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ31" t="n">
         <v>7</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>14</v>
@@ -6076,19 +6143,19 @@
         <v>21</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
         <v>16</v>
       </c>
       <c r="AX31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-3-2007-08</t>
+          <t>2007-12-03</t>
         </is>
       </c>
     </row>
